--- a/CateringPro/Templates/OrderFinDetails.xlsx
+++ b/CateringPro/Templates/OrderFinDetails.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurik\source\repos\Ferolka\catering\CateringPro\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355E6EEB-062C-4A4B-BE88-0FB8FC1997EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FC07A-0780-4CFB-9BC8-6236FCB59DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{98B7E5A1-70C8-462F-B263-91BF25DF1EA3}"/>
+    <workbookView xWindow="1248" yWindow="1068" windowWidth="20532" windowHeight="10632" xr2:uid="{98B7E5A1-70C8-462F-B263-91BF25DF1EA3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="pivot" sheetId="5" r:id="rId1"/>
     <sheet name="rawdata" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="mydata">rawdata!$A$1</definedName>
-    <definedName name="test">Sheet1!$C$10</definedName>
+    <definedName name="mydata">rawdata!$A$1:$H$7</definedName>
+    <definedName name="test">pivot!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +49,80 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ChildNameSurname</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>DishKind</t>
+  </si>
+  <si>
+    <t>IsDelivered</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>TotalWithoutDiscount</t>
+  </si>
+  <si>
+    <t>01.09.2020 0:00:00</t>
+  </si>
+  <si>
+    <t>Андрєєв Петро</t>
+  </si>
+  <si>
+    <t>Сніданок</t>
+  </si>
+  <si>
+    <t>Стандарт</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>160,00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Total Sum of Total</t>
+  </si>
+  <si>
+    <t>Sum of Total</t>
+  </si>
+  <si>
+    <t>Total Sum of TotalWithoutDiscount</t>
+  </si>
+  <si>
+    <t>Sum of TotalWithoutDiscount</t>
+  </si>
+  <si>
+    <t>Total Sum of Discount</t>
+  </si>
+  <si>
+    <t>Sum of Discount</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,8 +157,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,6 +182,208 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Yuri Kovalenko" refreshedDate="44099.820523263887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{4D36A3D9-D7EC-4A09-A151-9738C2B196F9}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="mydata"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems count="1">
+        <s v="01.09.2020 0:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ChildNameSurname" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Андрєєв Петро"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Сніданок"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="DishKind" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="IsDelivered" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Total" numFmtId="0">
+      <sharedItems count="1">
+        <s v="160,00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Discount" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="TotalWithoutDiscount" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <s v="True"/>
+    <x v="0"/>
+    <s v=""/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <s v="True"/>
+    <x v="0"/>
+    <s v=""/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <s v="True"/>
+    <x v="0"/>
+    <s v=""/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <s v="True"/>
+    <x v="0"/>
+    <s v=""/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <s v="True"/>
+    <x v="0"/>
+    <s v=""/>
+    <s v=""/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <s v="True"/>
+    <x v="0"/>
+    <s v=""/>
+    <s v=""/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AE70BDB-53CE-4627-8653-0CE7CF49BE0B}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="2"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Total" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Discount" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of TotalWithoutDiscount" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,61 +683,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7EC18C-F9C4-4DEE-8D64-1B6629516BB6}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E9539F-DF3E-420E-8B2E-68A8CD2343F0}">
-  <dimension ref="D1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D2">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D3">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D4">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D5">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D6">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D7">
+      <c r="H1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/CateringPro/Templates/OrderFinDetails.xlsx
+++ b/CateringPro/Templates/OrderFinDetails.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurik\source\repos\Ferolka\catering\CateringPro\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4FC07A-0780-4CFB-9BC8-6236FCB59DEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C463D1B8-BCCC-45CC-821C-2A2887850BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="1068" windowWidth="20532" windowHeight="10632" xr2:uid="{98B7E5A1-70C8-462F-B263-91BF25DF1EA3}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="20532" windowHeight="10632" xr2:uid="{98B7E5A1-70C8-462F-B263-91BF25DF1EA3}"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="5" r:id="rId1"/>
     <sheet name="rawdata" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="mydata">rawdata!$A$1:$H$7</definedName>
+    <definedName name="mydata">rawdata!$A$1:$L$21</definedName>
     <definedName name="test">pivot!$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="23" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -63,9 +63,6 @@
     <t>DishKind</t>
   </si>
   <si>
-    <t>IsDelivered</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -75,24 +72,9 @@
     <t>TotalWithoutDiscount</t>
   </si>
   <si>
-    <t>01.09.2020 0:00:00</t>
-  </si>
-  <si>
-    <t>Андрєєв Петро</t>
-  </si>
-  <si>
-    <t>Сніданок</t>
-  </si>
-  <si>
     <t>Стандарт</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>160,00</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -111,16 +93,37 @@
     <t>Sum of Total</t>
   </si>
   <si>
-    <t>Total Sum of TotalWithoutDiscount</t>
-  </si>
-  <si>
-    <t>Sum of TotalWithoutDiscount</t>
-  </si>
-  <si>
     <t>Total Sum of Discount</t>
   </si>
   <si>
     <t>Sum of Discount</t>
+  </si>
+  <si>
+    <t>OrderType</t>
+  </si>
+  <si>
+    <t>TotalDay</t>
+  </si>
+  <si>
+    <t>TotalDayDiscount</t>
+  </si>
+  <si>
+    <t>OrderedDishes</t>
+  </si>
+  <si>
+    <t>DeliveredDishes</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>01.09.2020</t>
+  </si>
+  <si>
+    <t>Обід</t>
+  </si>
+  <si>
+    <t>Овочево-рибне</t>
   </si>
 </sst>
 </file>
@@ -185,42 +188,55 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Yuri Kovalenko" refreshedDate="44099.820523263887" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{4D36A3D9-D7EC-4A09-A151-9738C2B196F9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Yuri Kovalenko" refreshedDate="44102.671826388891" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{4D36A3D9-D7EC-4A09-A151-9738C2B196F9}">
   <cacheSource type="worksheet">
     <worksheetSource name="mydata"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="12">
+    <cacheField name="OrderType" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems count="1">
-        <s v="01.09.2020 0:00:00"/>
+      <sharedItems count="2">
+        <s v="01.09.2020"/>
+        <s v="01.09.2020 0:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ChildNameSurname" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Андрєєв Петро"/>
+      <sharedItems count="2">
+        <s v=""/>
+        <s v="Андрєєв Петро" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Сніданок"/>
+      <sharedItems count="2">
+        <s v="Обід"/>
+        <s v="Сніданок" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DishKind" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="IsDelivered" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
     <cacheField name="Total" numFmtId="0">
-      <sharedItems count="1">
-        <s v="160,00"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="81" maxValue="93"/>
     </cacheField>
     <cacheField name="Discount" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="TotalWithoutDiscount" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="81" maxValue="93"/>
+    </cacheField>
+    <cacheField name="TotalDay" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="81" maxValue="93"/>
+    </cacheField>
+    <cacheField name="TotalDayDiscount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="OrderedDishes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="6"/>
+    </cacheField>
+    <cacheField name="DeliveredDishes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -232,132 +248,351 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
-  <r>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <s v="Complex"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Стандарт"/>
-    <s v="True"/>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-  </r>
-  <r>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Complex"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Стандарт"/>
-    <s v="True"/>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-  </r>
-  <r>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Овочево-рибне"/>
+    <n v="93"/>
+    <n v="0"/>
+    <n v="93"/>
+    <n v="93"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Complex"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Стандарт"/>
-    <s v="True"/>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-  </r>
-  <r>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Стандарт"/>
-    <s v="True"/>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-  </r>
-  <r>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Complex"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Стандарт"/>
-    <s v="True"/>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
-  </r>
-  <r>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Complex"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Стандарт"/>
-    <s v="True"/>
-    <x v="0"/>
-    <s v=""/>
-    <s v=""/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Овочево-рибне"/>
+    <n v="93"/>
+    <n v="0"/>
+    <n v="93"/>
+    <n v="93"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <s v="Complex"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Стандарт"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="6"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AE70BDB-53CE-4627-8653-0CE7CF49BE0B}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B3:H8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="8">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1AE70BDB-53CE-4627-8653-0CE7CF49BE0B}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:F8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="2">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="2">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="2">
+      <items count="3">
+        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="2">
-    <field x="0"/>
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
   <rowItems count="3">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i r="1">
-      <x/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="2">
-    <field x="2"/>
+    <field x="3"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="4">
     <i>
-      <x/>
+      <x v="1"/>
       <x/>
     </i>
     <i r="1" i="1">
       <x v="1"/>
-    </i>
-    <i r="1" i="2">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -365,14 +600,10 @@
     <i t="grand" i="1">
       <x/>
     </i>
-    <i t="grand" i="2">
-      <x/>
-    </i>
   </colItems>
-  <dataFields count="3">
+  <dataFields count="2">
     <dataField name="Sum of Total" fld="5" baseField="0" baseItem="0"/>
     <dataField name="Sum of Discount" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of TotalWithoutDiscount" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -683,122 +914,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7EC18C-F9C4-4DEE-8D64-1B6629516BB6}">
-  <dimension ref="B3:H8"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1644</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1644</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <v>1644</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1644</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1644</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1644</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
         <v>0</v>
       </c>
     </row>
@@ -809,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E9539F-DF3E-420E-8B2E-68A8CD2343F0}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,186 +1024,802 @@
     <col min="8" max="8" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>81</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>81</v>
+      </c>
+      <c r="I2">
+        <v>81</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>81</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>81</v>
+      </c>
+      <c r="I3">
+        <v>81</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>93</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>93</v>
+      </c>
+      <c r="I4">
+        <v>93</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>81</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>81</v>
+      </c>
+      <c r="I5">
+        <v>81</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>81</v>
+      </c>
+      <c r="I6">
+        <v>81</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>81</v>
+      </c>
+      <c r="I7">
+        <v>81</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>81</v>
+      </c>
+      <c r="I8">
+        <v>81</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>81</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>81</v>
+      </c>
+      <c r="I9">
+        <v>81</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>81</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>81</v>
+      </c>
+      <c r="I10">
+        <v>81</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>81</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>81</v>
+      </c>
+      <c r="I11">
+        <v>81</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>81</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>81</v>
+      </c>
+      <c r="I12">
+        <v>81</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>81</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>81</v>
+      </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>6</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>81</v>
+      </c>
+      <c r="I14">
+        <v>81</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>93</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>93</v>
+      </c>
+      <c r="I15">
+        <v>93</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>81</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>81</v>
+      </c>
+      <c r="I16">
+        <v>81</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17">
+        <v>81</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>81</v>
+      </c>
+      <c r="I17">
+        <v>81</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <v>81</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>81</v>
+      </c>
+      <c r="I19">
+        <v>81</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>81</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>81</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>81</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>81</v>
+      </c>
+      <c r="I21">
+        <v>81</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
